--- a/fastfood.xlsx
+++ b/fastfood.xlsx
@@ -1268,7 +1268,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1515,7 +1515,7 @@
         <v>47</v>
       </c>
       <c r="H6" s="11">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>54</v>
